--- a/Autorreporte/Requerimientos Reto Hackaton.xlsx
+++ b/Autorreporte/Requerimientos Reto Hackaton.xlsx
@@ -293,10 +293,10 @@
     <t xml:space="preserve">Registrar categorías de productos</t>
   </si>
   <si>
+    <t xml:space="preserve">Finalizado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Registrar marcas de productos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalizado</t>
   </si>
   <si>
     <t xml:space="preserve">Registrar productos con sus precios e impuestos aplicables</t>
@@ -420,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -460,6 +460,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -516,7 +524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,6 +574,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,17 +601,17 @@
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I66" activeCellId="0" sqref="I66"/>
+      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="57.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="7.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12"/>
@@ -669,7 +681,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="n">
         <f aca="false">SUM(J4:J103)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
@@ -2772,12 +2784,12 @@
         <f aca="false">F65*G65</f>
         <v>10</v>
       </c>
-      <c r="I65" s="9" t="s">
-        <v>16</v>
+      <c r="I65" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="J65" s="3" t="n">
         <f aca="false">IF(I65="Finalizado",H65,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2806,7 @@
         <v>59</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F66" s="3" t="n">
         <v>10</v>
@@ -2807,7 +2819,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J66" s="3" t="n">
         <f aca="false">IF(I66="Finalizado",H66,0)</f>
@@ -4076,7 +4088,7 @@
       <c r="E104" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="12"/>
+      <c r="E144" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4114,7 +4126,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4128,7 +4140,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Autorreporte/Requerimientos Reto Hackaton.xlsx
+++ b/Autorreporte/Requerimientos Reto Hackaton.xlsx
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I65" activeCellId="0" sqref="I65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -681,7 +681,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="n">
         <f aca="false">SUM(J4:J103)</f>
-        <v>20</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,11 +3261,11 @@
         <v>3060</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="J79" s="3" t="n">
         <f aca="false">IF(I79="Finalizado",H79,0)</f>
-        <v>0</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Autorreporte/Requerimientos Reto Hackaton.xlsx
+++ b/Autorreporte/Requerimientos Reto Hackaton.xlsx
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E68" activeCellId="0" sqref="E68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -681,7 +681,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="7" t="n">
         <f aca="false">SUM(J4:J103)</f>
-        <v>3080</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,11 +2887,11 @@
         <v>10</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="J68" s="3" t="n">
         <f aca="false">IF(I68="Finalizado",H68,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,11 +2921,11 @@
         <v>10</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="J69" s="3" t="n">
         <f aca="false">IF(I69="Finalizado",H69,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
